--- a/media/NYC-fireworks.xlsx
+++ b/media/NYC-fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyberk/Documents/GitHub/new-york-fireworks-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD3D762-5868-3B44-A921-E3C1F3CD353B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B23C9D0-3D9D-5F42-A4E1-D438A44C0894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16740" xr2:uid="{EC587176-9169-5E49-A283-B47CA479FB70}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="15340" windowHeight="14100" xr2:uid="{EC587176-9169-5E49-A283-B47CA479FB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>source</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>https://twitter.com/elliosch/status/1275448198836793356</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MenshevikM/status/1275482272469258241</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RobertaMcCain69/status/1275467363547262976</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BrettKollmann/status/1275424047682031616</t>
+  </si>
+  <si>
+    <t>https://twitter.com/aubreybell/status/1275466700750589954</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/JehAusW/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/JehmY7q/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/JehaXu3/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/Jehagxj/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/Jek8MDq/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/JekRbJp/</t>
+  </si>
+  <si>
+    <t>https://vm.tiktok.com/JehcHEe/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chichaaang/status/1274546582705356802</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HappyCenter3/status/1275244584575082497</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jessesingal/status/1274769474923696131</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Flatbush_kloud/status/1275114025370759175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +127,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB342B66-B0DC-2C49-A3B7-56B0D0DDB9C3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -406,7 +468,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7761E7FF-BA71-0945-8311-2DE0A37F93B9}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{11FD1991-21AB-C44F-920F-0AF0258EDE5D}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{DD2208FD-B8A4-3043-8AC6-C00D5557745A}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{A81E94B8-73E2-2C46-8F3C-F6035E9941B8}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{57C85623-4F63-5141-8B2A-82A9F0942486}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{889BA4DC-9230-B144-8405-39B29015C7AF}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{029140C1-8B7B-804D-AD5F-6670C6706BF8}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{B64AF4F7-40B8-1D4E-99FD-490353B8E9A5}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{C4D33D73-697A-F347-83D2-8D5F91E37AB3}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{55C5BFAA-6C0D-9D4B-96AD-C5FA5E995B72}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{D6FD4155-B1C4-5F44-8DB8-B8A82247965C}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{C7CBED22-136D-9742-AFFB-A61C6662BC38}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{BFD8BB3A-A9FD-9043-93E1-B8A1AEB79B77}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{DC0AB0FD-0FCF-EF47-93C4-0247DA9BF485}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{02902D9C-8CB7-1044-9CC3-6A26C3A9E406}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{C9215FB4-03DB-8C49-ABB8-6FD9CA715342}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>